--- a/xlsx/美国流行音乐_intext.xlsx
+++ b/xlsx/美国流行音乐_intext.xlsx
@@ -29,7 +29,7 @@
     <t>音乐</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国流行音乐</t>
+    <t>政策_政策_美国_美国流行音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%B3%B0%E5%A7%86</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%93%BA%E6%A8%82</t>
   </si>
   <si>
-    <t>搖擺樂</t>
+    <t>摇摆乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%87%E6%BB%9A%E4%B9%90</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>藍草音樂</t>
+    <t>蓝草音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
   </si>
   <si>
-    <t>靈魂樂</t>
+    <t>灵魂乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%85%8B</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E5%85%8B%E6%90%96%E6%BB%BE</t>
   </si>
   <si>
-    <t>朋克搖滾</t>
+    <t>朋克摇滚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%96%AF%E7%A7%91</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B7%E6%B2%99%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>騷沙音樂</t>
+    <t>骚沙音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E6%BC%AC%E6%90%96%E6%BB%BE</t>
   </si>
   <si>
-    <t>油漬搖滾</t>
+    <t>油渍摇滚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E5%93%88%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>嘻哈音樂</t>
+    <t>嘻哈音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>音樂產業</t>
+    <t>音乐产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
@@ -194,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>非裔美國人音樂</t>
+    <t>非裔美国人音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%A0%BC</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E8%97%9D%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>綜藝節目</t>
+    <t>综艺节目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%88%9E%E6%9D%82%E8%80%8D%E8%A1%A8%E6%BC%94</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>百老匯劇院</t>
+    <t>百老汇剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AE%E7%A0%B0%E5%B7%B7</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87%C2%B7%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
-    <t>歐文·柏林</t>
+    <t>欧文·柏林</t>
   </si>
   <si>
     <t>[15]</t>
@@ -326,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E4%BC%AF%E7%89%B9%E8%88%87%E8%96%A9%E5%88%A9%E6%96%87</t>
   </si>
   <si>
-    <t>吉爾伯特與薩利文</t>
+    <t>吉尔伯特与萨利文</t>
   </si>
   <si>
     <t>[16]</t>
